--- a/resource_api/raporlar/sablonlar/by_customers_excel.xlsx
+++ b/resource_api/raporlar/sablonlar/by_customers_excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJELER\Doktor-Web\doktor-servis\resource_api\raporlar\sablonlar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJELER\NewProjects\gitPull\newprojectservis\resource_api\raporlar\sablonlar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC161DB9-6A13-472A-BCB4-3F0C28EE0ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA4B29E-730F-429D-9F04-C9F239E1793D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9AD5827-62C1-4103-A3FD-6743DD505E64}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D9AD5827-62C1-4103-A3FD-6743DD505E64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>Toplam (FOB)</t>
   </si>
   <si>
-    <t>Toplam (CFR)</t>
-  </si>
-  <si>
     <t>İmperial Homes</t>
   </si>
   <si>
@@ -79,7 +76,10 @@
     <t>Toplam (FOB) ($)</t>
   </si>
   <si>
-    <t>Toplam (CFR) ($)</t>
+    <t>Toplam (DDP) ($)</t>
+  </si>
+  <si>
+    <t>Toplam (DDP)</t>
   </si>
 </sst>
 </file>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65084603-AFDE-4106-BFDE-48F5C19FDA78}">
   <dimension ref="A1:S480"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,22 +578,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="25" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>14</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
@@ -10675,8 +10675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5560D6E6-9200-4F8C-90F6-99422EB25934}">
   <dimension ref="A1:S194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10686,7 +10686,7 @@
     <col min="4" max="4" width="12.44140625" style="19" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" style="19" customWidth="1"/>
     <col min="8" max="8" width="12.21875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="13" style="19" customWidth="1"/>
     <col min="12" max="12" width="10.109375" style="19" customWidth="1"/>
     <col min="13" max="13" width="12.44140625" style="19" customWidth="1"/>
     <col min="14" max="14" width="11.88671875" style="19" customWidth="1"/>
@@ -10697,25 +10697,25 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
       <c r="F1" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" s="30"/>
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
       <c r="K1" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
       <c r="N1" s="30"/>
       <c r="P1" s="30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q1" s="30"/>
       <c r="R1" s="30"/>
@@ -10732,7 +10732,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>0</v>
@@ -10744,7 +10744,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K2" s="20" t="s">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>3</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="P2" s="20" t="s">
         <v>0</v>
@@ -10768,7 +10768,7 @@
         <v>3</v>
       </c>
       <c r="S2" s="21" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.3"/>

--- a/resource_api/raporlar/sablonlar/by_customers_excel.xlsx
+++ b/resource_api/raporlar/sablonlar/by_customers_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJELER\NewProjects\gitPull\newprojectservis\resource_api\raporlar\sablonlar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA4B29E-730F-429D-9F04-C9F239E1793D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6EE252-E86F-4897-84F9-06A51850A758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D9AD5827-62C1-4103-A3FD-6743DD505E64}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9AD5827-62C1-4103-A3FD-6743DD505E64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Müşteri</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Toplam (DDP)</t>
+  </si>
+  <si>
+    <t>2023 ($)</t>
   </si>
 </sst>
 </file>
@@ -149,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,18 +223,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,7 +538,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -549,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65084603-AFDE-4106-BFDE-48F5C19FDA78}">
   <dimension ref="A1:S480"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,24 +577,26 @@
         <v>2</v>
       </c>
       <c r="D1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="J1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="2"/>
       <c r="M1" s="8"/>
@@ -701,8 +702,6 @@
       <c r="H6" s="18"/>
       <c r="I6" s="17"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="2"/>
       <c r="M6" s="8"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -10675,7 +10674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5560D6E6-9200-4F8C-90F6-99422EB25934}">
   <dimension ref="A1:S194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -10696,36 +10695,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="F1" s="30" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="K1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="P1" s="30" t="s">
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="P1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
     </row>
     <row r="2" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="20">
         <v>2022</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -10737,7 +10736,7 @@
       <c r="F2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="20">
         <v>2022</v>
       </c>
       <c r="H2" s="21" t="s">
@@ -10749,7 +10748,7 @@
       <c r="K2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="29">
+      <c r="L2" s="20">
         <v>2022</v>
       </c>
       <c r="M2" s="21" t="s">
@@ -10761,7 +10760,7 @@
       <c r="P2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="29">
+      <c r="Q2" s="20">
         <v>2022</v>
       </c>
       <c r="R2" s="21" t="s">
